--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/2_fold/36.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/2_fold/36.xlsx
@@ -479,13 +479,13 @@
         <v>-15.46697942409543</v>
       </c>
       <c r="E2" t="n">
-        <v>-8.9683087142385</v>
+        <v>-8.997530734181233</v>
       </c>
       <c r="F2" t="n">
-        <v>6.057177380491157</v>
+        <v>5.967914059716269</v>
       </c>
       <c r="G2" t="n">
-        <v>-15.94852234351612</v>
+        <v>-15.86080391447656</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-14.60745382107391</v>
       </c>
       <c r="E3" t="n">
-        <v>-9.222888542995863</v>
+        <v>-9.256287007545106</v>
       </c>
       <c r="F3" t="n">
-        <v>5.977078671705477</v>
+        <v>5.888653258312459</v>
       </c>
       <c r="G3" t="n">
-        <v>-15.4852381151588</v>
+        <v>-15.39707454782262</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-13.53323881737216</v>
       </c>
       <c r="E4" t="n">
-        <v>-9.266957234361113</v>
+        <v>-9.29864060723809</v>
       </c>
       <c r="F4" t="n">
-        <v>6.098261026808493</v>
+        <v>6.018267056445547</v>
       </c>
       <c r="G4" t="n">
-        <v>-14.68825727197157</v>
+        <v>-14.60949397807574</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-12.38234292184584</v>
       </c>
       <c r="E5" t="n">
-        <v>-10.23017104672974</v>
+        <v>-10.26588684888197</v>
       </c>
       <c r="F5" t="n">
-        <v>6.172808599189281</v>
+        <v>6.087106384787343</v>
       </c>
       <c r="G5" t="n">
-        <v>-13.6755807394669</v>
+        <v>-13.60447644273348</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-11.17674254830904</v>
       </c>
       <c r="E6" t="n">
-        <v>-10.82520311858335</v>
+        <v>-10.8603297671077</v>
       </c>
       <c r="F6" t="n">
-        <v>6.380819106738625</v>
+        <v>6.285480957445176</v>
       </c>
       <c r="G6" t="n">
-        <v>-12.91637118997805</v>
+        <v>-12.86617530088287</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-9.992800345740172</v>
       </c>
       <c r="E7" t="n">
-        <v>-11.65897333275583</v>
+        <v>-11.6869515839286</v>
       </c>
       <c r="F7" t="n">
-        <v>6.700952095824511</v>
+        <v>6.605168808234443</v>
       </c>
       <c r="G7" t="n">
-        <v>-11.55682718598469</v>
+        <v>-11.51147544894095</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-8.860286936133734</v>
       </c>
       <c r="E8" t="n">
-        <v>-12.46314185020317</v>
+        <v>-12.49135576282709</v>
       </c>
       <c r="F8" t="n">
-        <v>6.982462791527305</v>
+        <v>6.884925135356446</v>
       </c>
       <c r="G8" t="n">
-        <v>-10.81437578413324</v>
+        <v>-10.77262443037098</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-7.812287746718208</v>
       </c>
       <c r="E9" t="n">
-        <v>-13.19888999299965</v>
+        <v>-13.24164945408073</v>
       </c>
       <c r="F9" t="n">
-        <v>7.048055228764353</v>
+        <v>6.948134773476299</v>
       </c>
       <c r="G9" t="n">
-        <v>-9.57367061303423</v>
+        <v>-9.552709836184626</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-6.856389513216262</v>
       </c>
       <c r="E10" t="n">
-        <v>-14.24661462021162</v>
+        <v>-14.2808378998399</v>
       </c>
       <c r="F10" t="n">
-        <v>7.197752619456648</v>
+        <v>7.102964346882552</v>
       </c>
       <c r="G10" t="n">
-        <v>-8.926400252842134</v>
+        <v>-8.904811045456128</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-5.981938678438711</v>
       </c>
       <c r="E11" t="n">
-        <v>-15.1428874881505</v>
+        <v>-15.16997546273004</v>
       </c>
       <c r="F11" t="n">
-        <v>7.426396596284553</v>
+        <v>7.333729276770815</v>
       </c>
       <c r="G11" t="n">
-        <v>-8.095916206682924</v>
+        <v>-8.083818918857169</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-5.178913495098791</v>
       </c>
       <c r="E12" t="n">
-        <v>-16.41911207685912</v>
+        <v>-16.44384343692714</v>
       </c>
       <c r="F12" t="n">
-        <v>7.355567237910814</v>
+        <v>7.265151794485854</v>
       </c>
       <c r="G12" t="n">
-        <v>-7.65564824672136</v>
+        <v>-7.648709326215245</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-4.412376761734049</v>
       </c>
       <c r="E13" t="n">
-        <v>-17.40528978841214</v>
+        <v>-17.41784530683735</v>
       </c>
       <c r="F13" t="n">
-        <v>7.26125028823902</v>
+        <v>7.163765001279527</v>
       </c>
       <c r="G13" t="n">
-        <v>-7.41231470610504</v>
+        <v>-7.406187508375112</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-3.669436865081686</v>
       </c>
       <c r="E14" t="n">
-        <v>-18.79180393625945</v>
+        <v>-18.80276219373798</v>
       </c>
       <c r="F14" t="n">
-        <v>7.249912353978085</v>
+        <v>7.15679989616773</v>
       </c>
       <c r="G14" t="n">
-        <v>-6.476110314498892</v>
+        <v>-6.471672023835547</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-2.922642953249391</v>
       </c>
       <c r="E15" t="n">
-        <v>-19.88465773136685</v>
+        <v>-19.89595638871926</v>
       </c>
       <c r="F15" t="n">
-        <v>7.241978418455999</v>
+        <v>7.15331734361183</v>
       </c>
       <c r="G15" t="n">
-        <v>-6.013480701283659</v>
+        <v>-6.002640274530711</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>-2.159855898456199</v>
       </c>
       <c r="E16" t="n">
-        <v>-20.8510136964175</v>
+        <v>-20.85024125054984</v>
       </c>
       <c r="F16" t="n">
-        <v>7.136192611494852</v>
+        <v>7.059785932110539</v>
       </c>
       <c r="G16" t="n">
-        <v>-5.402096343180736</v>
+        <v>-5.396793960529837</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>-1.376119236177759</v>
       </c>
       <c r="E17" t="n">
-        <v>-21.94391986073626</v>
+        <v>-21.93712495556141</v>
       </c>
       <c r="F17" t="n">
-        <v>7.456220862158005</v>
+        <v>7.381359074509015</v>
       </c>
       <c r="G17" t="n">
-        <v>-5.505342243390587</v>
+        <v>-5.4898147722203</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>-0.5692335360063882</v>
       </c>
       <c r="E18" t="n">
-        <v>-22.81046010892159</v>
+        <v>-22.80502680324227</v>
       </c>
       <c r="F18" t="n">
-        <v>7.852760530628204</v>
+        <v>7.778605727332668</v>
       </c>
       <c r="G18" t="n">
-        <v>-4.954431232113596</v>
+        <v>-4.935002254696474</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>0.2425792834016103</v>
       </c>
       <c r="E19" t="n">
-        <v>-23.42988314096933</v>
+        <v>-23.42609946544807</v>
       </c>
       <c r="F19" t="n">
-        <v>8.160141616746248</v>
+        <v>8.080906999948121</v>
       </c>
       <c r="G19" t="n">
-        <v>-4.092617305254135</v>
+        <v>-4.08362289320187</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>1.048214616814437</v>
       </c>
       <c r="E20" t="n">
-        <v>-24.33356625231663</v>
+        <v>-24.34012549604034</v>
       </c>
       <c r="F20" t="n">
-        <v>8.378337935906455</v>
+        <v>8.307272916081565</v>
       </c>
       <c r="G20" t="n">
-        <v>-3.667326939743506</v>
+        <v>-3.642975256457896</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>1.815690616890327</v>
       </c>
       <c r="E21" t="n">
-        <v>-24.43840941347317</v>
+        <v>-24.44625170287537</v>
       </c>
       <c r="F21" t="n">
-        <v>8.220366209818188</v>
+        <v>8.143304915291788</v>
       </c>
       <c r="G21" t="n">
-        <v>-3.64065791885491</v>
+        <v>-3.624227078788544</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>2.523779884536118</v>
       </c>
       <c r="E22" t="n">
-        <v>-25.11300340969595</v>
+        <v>-25.12642302010872</v>
       </c>
       <c r="F22" t="n">
-        <v>8.620938307563639</v>
+        <v>8.547883257706808</v>
       </c>
       <c r="G22" t="n">
-        <v>-4.049910213384425</v>
+        <v>-4.025610899310182</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>3.148161576605122</v>
       </c>
       <c r="E23" t="n">
-        <v>-25.23861096315947</v>
+        <v>-25.24249937710346</v>
       </c>
       <c r="F23" t="n">
-        <v>8.249640598972288</v>
+        <v>8.185697791893297</v>
       </c>
       <c r="G23" t="n">
-        <v>-3.940288361690653</v>
+        <v>-3.920283322948495</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>3.67295318879302</v>
       </c>
       <c r="E24" t="n">
-        <v>-25.65186950235855</v>
+        <v>-25.65290379428305</v>
       </c>
       <c r="F24" t="n">
-        <v>8.222487162878547</v>
+        <v>8.166347368293227</v>
       </c>
       <c r="G24" t="n">
-        <v>-3.821868482487241</v>
+        <v>-3.795775522923681</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>4.094779687735831</v>
       </c>
       <c r="E25" t="n">
-        <v>-25.67810647725337</v>
+        <v>-25.69156536457467</v>
       </c>
       <c r="F25" t="n">
-        <v>8.350215669402427</v>
+        <v>8.305806578163292</v>
       </c>
       <c r="G25" t="n">
-        <v>-3.703985387700339</v>
+        <v>-3.68578708675034</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>4.413449971369536</v>
       </c>
       <c r="E26" t="n">
-        <v>-26.00413100261803</v>
+        <v>-26.0120256612316</v>
       </c>
       <c r="F26" t="n">
-        <v>8.246995953798258</v>
+        <v>8.20407938508308</v>
       </c>
       <c r="G26" t="n">
-        <v>-3.52278791637085</v>
+        <v>-3.504511061603801</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>4.64553249544995</v>
       </c>
       <c r="E27" t="n">
-        <v>-25.97483042885825</v>
+        <v>-25.97900687346476</v>
       </c>
       <c r="F27" t="n">
-        <v>8.161424662424738</v>
+        <v>8.114580402857042</v>
       </c>
       <c r="G27" t="n">
-        <v>-3.652912314314766</v>
+        <v>-3.635407905415378</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>4.804511695068277</v>
       </c>
       <c r="E28" t="n">
-        <v>-25.91290383641689</v>
+        <v>-25.91150296001282</v>
       </c>
       <c r="F28" t="n">
-        <v>8.038147538867046</v>
+        <v>7.987113742389996</v>
       </c>
       <c r="G28" t="n">
-        <v>-3.890275764835259</v>
+        <v>-3.865269466407563</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>4.913262868586551</v>
       </c>
       <c r="E29" t="n">
-        <v>-25.75990718540848</v>
+        <v>-25.75798261689074</v>
       </c>
       <c r="F29" t="n">
-        <v>7.980410483335032</v>
+        <v>7.92471582704633</v>
       </c>
       <c r="G29" t="n">
-        <v>-3.693053314827498</v>
+        <v>-3.673506506684801</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>4.98881093739986</v>
       </c>
       <c r="E30" t="n">
-        <v>-25.64049229118909</v>
+        <v>-25.63758579995823</v>
       </c>
       <c r="F30" t="n">
-        <v>8.081247399822008</v>
+        <v>8.021075175961434</v>
       </c>
       <c r="G30" t="n">
-        <v>-3.840341721796916</v>
+        <v>-3.821370974979255</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>5.046251275619138</v>
       </c>
       <c r="E31" t="n">
-        <v>-25.31987488689806</v>
+        <v>-25.32169471699306</v>
       </c>
       <c r="F31" t="n">
-        <v>7.908271894677122</v>
+        <v>7.859516158894534</v>
       </c>
       <c r="G31" t="n">
-        <v>-4.248232416830892</v>
+        <v>-4.216483582439706</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>5.093913177985968</v>
       </c>
       <c r="E32" t="n">
-        <v>-24.88636255520283</v>
+        <v>-24.88706953955628</v>
       </c>
       <c r="F32" t="n">
-        <v>8.064620175213015</v>
+        <v>8.011858194760858</v>
       </c>
       <c r="G32" t="n">
-        <v>-4.148744007536616</v>
+        <v>-4.130231491318415</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>5.133109222007261</v>
       </c>
       <c r="E33" t="n">
-        <v>-24.74563339195712</v>
+        <v>-24.73464894987291</v>
       </c>
       <c r="F33" t="n">
-        <v>8.092428226448842</v>
+        <v>8.034324586437261</v>
       </c>
       <c r="G33" t="n">
-        <v>-4.282717542515998</v>
+        <v>-4.259936935571395</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>5.160285987819637</v>
       </c>
       <c r="E34" t="n">
-        <v>-24.35946282733756</v>
+        <v>-24.35350582954458</v>
       </c>
       <c r="F34" t="n">
-        <v>8.214500858145096</v>
+        <v>8.157837371446105</v>
       </c>
       <c r="G34" t="n">
-        <v>-4.311913377853047</v>
+        <v>-4.291018062517653</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>5.165186028378624</v>
       </c>
       <c r="E35" t="n">
-        <v>-24.19792999487635</v>
+        <v>-24.19387138099541</v>
       </c>
       <c r="F35" t="n">
-        <v>8.107720036167978</v>
+        <v>8.049511657733664</v>
       </c>
       <c r="G35" t="n">
-        <v>-4.473590225645522</v>
+        <v>-4.459516000090667</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>5.137559688445865</v>
       </c>
       <c r="E36" t="n">
-        <v>-23.86524148736525</v>
+        <v>-23.8656342564505</v>
       </c>
       <c r="F36" t="n">
-        <v>8.25822914963646</v>
+        <v>8.192898558456246</v>
       </c>
       <c r="G36" t="n">
-        <v>-4.388437887962937</v>
+        <v>-4.381747721210814</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>5.064891582550924</v>
       </c>
       <c r="E37" t="n">
-        <v>-23.26959407727808</v>
+        <v>-23.27356104503912</v>
       </c>
       <c r="F37" t="n">
-        <v>8.215626796189483</v>
+        <v>8.1534121730856</v>
       </c>
       <c r="G37" t="n">
-        <v>-4.503637060667284</v>
+        <v>-4.493726187416097</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>4.941729557397522</v>
       </c>
       <c r="E38" t="n">
-        <v>-22.77998122790605</v>
+        <v>-22.78761404046277</v>
       </c>
       <c r="F38" t="n">
-        <v>8.211541997702865</v>
+        <v>8.141576731316681</v>
       </c>
       <c r="G38" t="n">
-        <v>-4.483762944953543</v>
+        <v>-4.483920052587645</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>4.764567705784165</v>
       </c>
       <c r="E39" t="n">
-        <v>-22.60307803190864</v>
+        <v>-22.6083673222567</v>
       </c>
       <c r="F39" t="n">
-        <v>8.372001261331059</v>
+        <v>8.299784118856099</v>
       </c>
       <c r="G39" t="n">
-        <v>-4.727319054718174</v>
+        <v>-4.72957093080695</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>4.539589131273488</v>
       </c>
       <c r="E40" t="n">
-        <v>-21.9031111527786</v>
+        <v>-21.91530008672425</v>
       </c>
       <c r="F40" t="n">
-        <v>8.654297495204357</v>
+        <v>8.583546690647669</v>
       </c>
       <c r="G40" t="n">
-        <v>-4.67676967344627</v>
+        <v>-4.6798856415226</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>4.273833079125786</v>
       </c>
       <c r="E41" t="n">
-        <v>-21.21745416065457</v>
+        <v>-21.23570483081593</v>
       </c>
       <c r="F41" t="n">
-        <v>8.636413409522559</v>
+        <v>8.566840912221627</v>
       </c>
       <c r="G41" t="n">
-        <v>-4.711241706828535</v>
+        <v>-4.71317936764911</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>3.979356141545577</v>
       </c>
       <c r="E42" t="n">
-        <v>-20.51695049710801</v>
+        <v>-20.53482149048697</v>
       </c>
       <c r="F42" t="n">
-        <v>8.627065505293567</v>
+        <v>8.558854607488174</v>
       </c>
       <c r="G42" t="n">
-        <v>-5.046483213393772</v>
+        <v>-5.043275599197549</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>3.670099667295928</v>
       </c>
       <c r="E43" t="n">
-        <v>-19.66113284495006</v>
+        <v>-19.68324574444974</v>
       </c>
       <c r="F43" t="n">
-        <v>8.745603215222555</v>
+        <v>8.671396042715651</v>
       </c>
       <c r="G43" t="n">
-        <v>-5.205017908504233</v>
+        <v>-5.207872030523729</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>3.357335126148937</v>
       </c>
       <c r="E44" t="n">
-        <v>-18.98683997169265</v>
+        <v>-19.01858880608383</v>
       </c>
       <c r="F44" t="n">
-        <v>8.499258444952638</v>
+        <v>8.425339303108252</v>
       </c>
       <c r="G44" t="n">
-        <v>-4.989570972940789</v>
+        <v>-4.992542925685861</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>3.052973925199478</v>
       </c>
       <c r="E45" t="n">
-        <v>-18.50662739576098</v>
+        <v>-18.52592545014968</v>
       </c>
       <c r="F45" t="n">
-        <v>8.554717439790188</v>
+        <v>8.470481563306523</v>
       </c>
       <c r="G45" t="n">
-        <v>-5.163462939284594</v>
+        <v>-5.153499696822041</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>2.759109289758007</v>
       </c>
       <c r="E46" t="n">
-        <v>-17.84359390294744</v>
+        <v>-17.86435829525442</v>
       </c>
       <c r="F46" t="n">
-        <v>8.615779940243998</v>
+        <v>8.531727356000118</v>
       </c>
       <c r="G46" t="n">
-        <v>-5.294647813758689</v>
+        <v>-5.280495034386783</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>2.479924467624061</v>
       </c>
       <c r="E47" t="n">
-        <v>-17.70569267711554</v>
+        <v>-17.72995271428126</v>
       </c>
       <c r="F47" t="n">
-        <v>8.480326975043502</v>
+        <v>8.407455217426454</v>
       </c>
       <c r="G47" t="n">
-        <v>-5.596647963408785</v>
+        <v>-5.586108659621195</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>2.211952949785177</v>
       </c>
       <c r="E48" t="n">
-        <v>-17.05071095054967</v>
+        <v>-17.07220851181578</v>
       </c>
       <c r="F48" t="n">
-        <v>8.414970199257604</v>
+        <v>8.342150810851924</v>
       </c>
       <c r="G48" t="n">
-        <v>-5.692771650872738</v>
+        <v>-5.684732976927918</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>1.954157504979956</v>
       </c>
       <c r="E49" t="n">
-        <v>-16.17618439763089</v>
+        <v>-16.19950178899201</v>
       </c>
       <c r="F49" t="n">
-        <v>8.345973763281709</v>
+        <v>8.282947417401639</v>
       </c>
       <c r="G49" t="n">
-        <v>-5.897469805803125</v>
+        <v>-5.887061425043952</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>1.704196354492642</v>
       </c>
       <c r="E50" t="n">
-        <v>-15.62167300307243</v>
+        <v>-15.64883953146901</v>
       </c>
       <c r="F50" t="n">
-        <v>8.090883334713517</v>
+        <v>8.022646252302442</v>
       </c>
       <c r="G50" t="n">
-        <v>-6.135566425282755</v>
+        <v>-6.124870013861065</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>1.458609861852331</v>
       </c>
       <c r="E51" t="n">
-        <v>-14.90006454734501</v>
+        <v>-14.92514939958976</v>
       </c>
       <c r="F51" t="n">
-        <v>7.906857925970216</v>
+        <v>7.841972473086622</v>
       </c>
       <c r="G51" t="n">
-        <v>-6.077423508362649</v>
+        <v>-6.075250186090923</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>1.218253483917084</v>
       </c>
       <c r="E52" t="n">
-        <v>-14.21313760184533</v>
+        <v>-14.25337024847795</v>
       </c>
       <c r="F52" t="n">
-        <v>7.768655577172956</v>
+        <v>7.706676615520224</v>
       </c>
       <c r="G52" t="n">
-        <v>-6.238039879624945</v>
+        <v>-6.244114708143506</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>0.9784207348461129</v>
       </c>
       <c r="E53" t="n">
-        <v>-13.7279499508338</v>
+        <v>-13.7585728471806</v>
       </c>
       <c r="F53" t="n">
-        <v>7.821077157751226</v>
+        <v>7.752578229283316</v>
       </c>
       <c r="G53" t="n">
-        <v>-6.269814898621815</v>
+        <v>-6.27812851092631</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>0.7407526399421271</v>
       </c>
       <c r="E54" t="n">
-        <v>-13.29401866544763</v>
+        <v>-13.33247075889378</v>
       </c>
       <c r="F54" t="n">
-        <v>7.602357146477351</v>
+        <v>7.53014000400239</v>
       </c>
       <c r="G54" t="n">
-        <v>-6.492789908319251</v>
+        <v>-6.496887799108711</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>0.5009351766077262</v>
       </c>
       <c r="E55" t="n">
-        <v>-12.70445917618187</v>
+        <v>-12.74560828401341</v>
       </c>
       <c r="F55" t="n">
-        <v>7.551270980788936</v>
+        <v>7.486804481596277</v>
       </c>
       <c r="G55" t="n">
-        <v>-6.830898629206827</v>
+        <v>-6.82842418396974</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>0.259191865764391</v>
       </c>
       <c r="E56" t="n">
-        <v>-12.4119116691835</v>
+        <v>-12.45556140685781</v>
       </c>
       <c r="F56" t="n">
-        <v>7.607986836699293</v>
+        <v>7.545693659778361</v>
       </c>
       <c r="G56" t="n">
-        <v>-6.769757574935966</v>
+        <v>-6.768094852475066</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>0.01435465129924138</v>
       </c>
       <c r="E57" t="n">
-        <v>-11.95395600808276</v>
+        <v>-11.99346857805909</v>
       </c>
       <c r="F57" t="n">
-        <v>7.241114326468445</v>
+        <v>7.180444595099886</v>
       </c>
       <c r="G57" t="n">
-        <v>-7.005903441292179</v>
+        <v>-6.996712644697287</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-0.2354177826227592</v>
       </c>
       <c r="E58" t="n">
-        <v>-11.520404399479</v>
+        <v>-11.5543527407476</v>
       </c>
       <c r="F58" t="n">
-        <v>7.401390297856856</v>
+        <v>7.331058446991103</v>
       </c>
       <c r="G58" t="n">
-        <v>-7.785523890911283</v>
+        <v>-7.771174726996751</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-0.4895594741369894</v>
       </c>
       <c r="E59" t="n">
-        <v>-11.51700040074016</v>
+        <v>-11.54150919165987</v>
       </c>
       <c r="F59" t="n">
-        <v>7.254573213789739</v>
+        <v>7.190761329739167</v>
       </c>
       <c r="G59" t="n">
-        <v>-7.780601185042793</v>
+        <v>-7.776516386556175</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-0.752871450128213</v>
       </c>
       <c r="E60" t="n">
-        <v>-11.29943251211635</v>
+        <v>-11.3268085173584</v>
       </c>
       <c r="F60" t="n">
-        <v>7.100319701708523</v>
+        <v>7.033941726300972</v>
       </c>
       <c r="G60" t="n">
-        <v>-8.021944695627171</v>
+        <v>-8.013277591145949</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-1.023386720504891</v>
       </c>
       <c r="E61" t="n">
-        <v>-11.34939273976038</v>
+        <v>-11.36667457951146</v>
       </c>
       <c r="F61" t="n">
-        <v>6.923966382430473</v>
+        <v>6.8563577305558</v>
       </c>
       <c r="G61" t="n">
-        <v>-8.488475815089238</v>
+        <v>-8.478735141774994</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-1.305086303678289</v>
       </c>
       <c r="E62" t="n">
-        <v>-11.45511308520732</v>
+        <v>-11.4748431855898</v>
       </c>
       <c r="F62" t="n">
-        <v>6.97240790294486</v>
+        <v>6.902730667221193</v>
       </c>
       <c r="G62" t="n">
-        <v>-8.726677172991604</v>
+        <v>-8.710455809770703</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-1.596196986867369</v>
       </c>
       <c r="E63" t="n">
-        <v>-11.08538645295697</v>
+        <v>-11.09156601989827</v>
       </c>
       <c r="F63" t="n">
-        <v>7.306994794368011</v>
+        <v>7.231373653154201</v>
       </c>
       <c r="G63" t="n">
-        <v>-8.777658600257285</v>
+        <v>-8.764985251106493</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-1.896491750673894</v>
       </c>
       <c r="E64" t="n">
-        <v>-10.81005532419547</v>
+        <v>-10.81810709044313</v>
       </c>
       <c r="F64" t="n">
-        <v>7.153526820457298</v>
+        <v>7.086022907005358</v>
       </c>
       <c r="G64" t="n">
-        <v>-9.01389611273339</v>
+        <v>-8.979437171653966</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-2.204272677549541</v>
       </c>
       <c r="E65" t="n">
-        <v>-10.83311086949975</v>
+        <v>-10.85158410880943</v>
       </c>
       <c r="F65" t="n">
-        <v>7.129463167834206</v>
+        <v>7.06434205349946</v>
       </c>
       <c r="G65" t="n">
-        <v>-9.078716104102774</v>
+        <v>-9.046037716209828</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-2.514501779725633</v>
       </c>
       <c r="E66" t="n">
-        <v>-10.54306399234415</v>
+        <v>-10.56495432269552</v>
       </c>
       <c r="F66" t="n">
-        <v>6.945490128302271</v>
+        <v>6.87691264601731</v>
       </c>
       <c r="G66" t="n">
-        <v>-9.480505786012506</v>
+        <v>-9.445339860579629</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-2.825398709341488</v>
       </c>
       <c r="E67" t="n">
-        <v>-10.77549164469331</v>
+        <v>-10.79637386772587</v>
       </c>
       <c r="F67" t="n">
-        <v>6.707341139611273</v>
+        <v>6.64193199461401</v>
       </c>
       <c r="G67" t="n">
-        <v>-9.529732844697396</v>
+        <v>-9.490730874531895</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-3.128589737803335</v>
       </c>
       <c r="E68" t="n">
-        <v>-10.94506315109935</v>
+        <v>-10.9605775299668</v>
       </c>
       <c r="F68" t="n">
-        <v>6.675238813043361</v>
+        <v>6.605509208108328</v>
       </c>
       <c r="G68" t="n">
-        <v>-9.356835893369562</v>
+        <v>-9.315699877840858</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-3.421260627309612</v>
       </c>
       <c r="E69" t="n">
-        <v>-10.74730391667508</v>
+        <v>-10.75671728241828</v>
       </c>
       <c r="F69" t="n">
-        <v>6.655757466414872</v>
+        <v>6.589039091133436</v>
       </c>
       <c r="G69" t="n">
-        <v>-9.349530388383879</v>
+        <v>-9.307098234873845</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-3.696181234553715</v>
       </c>
       <c r="E70" t="n">
-        <v>-11.01031518846251</v>
+        <v>-11.01576158644467</v>
       </c>
       <c r="F70" t="n">
-        <v>6.463955229783585</v>
+        <v>6.403311683020711</v>
       </c>
       <c r="G70" t="n">
-        <v>-9.483071877369484</v>
+        <v>-9.437929617171212</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-3.949855545015955</v>
       </c>
       <c r="E71" t="n">
-        <v>-10.9687994961514</v>
+        <v>-10.97928643072762</v>
       </c>
       <c r="F71" t="n">
-        <v>6.103812163213385</v>
+        <v>6.042880585787992</v>
       </c>
       <c r="G71" t="n">
-        <v>-9.446622906258119</v>
+        <v>-9.397893355081216</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-4.178399894586824</v>
       </c>
       <c r="E72" t="n">
-        <v>-10.99923910025841</v>
+        <v>-11.01522480202816</v>
       </c>
       <c r="F72" t="n">
-        <v>6.358038499794022</v>
+        <v>6.289461017509061</v>
       </c>
       <c r="G72" t="n">
-        <v>-9.737180383224546</v>
+        <v>-9.67842212807088</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-4.377363674151632</v>
       </c>
       <c r="E73" t="n">
-        <v>-11.44249210526789</v>
+        <v>-11.46189489807933</v>
       </c>
       <c r="F73" t="n">
-        <v>6.488018882406679</v>
+        <v>6.419389030910351</v>
       </c>
       <c r="G73" t="n">
-        <v>-9.450602966322004</v>
+        <v>-9.400773661706396</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-4.545986512094241</v>
       </c>
       <c r="E74" t="n">
-        <v>-11.5738995488903</v>
+        <v>-11.59732167867414</v>
       </c>
       <c r="F74" t="n">
-        <v>6.431800534004307</v>
+        <v>6.366391389007043</v>
       </c>
       <c r="G74" t="n">
-        <v>-9.533267766464663</v>
+        <v>-9.478057525381104</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-4.681194010912372</v>
       </c>
       <c r="E75" t="n">
-        <v>-12.10700502830254</v>
+        <v>-12.12539971379517</v>
       </c>
       <c r="F75" t="n">
-        <v>6.400326637972797</v>
+        <v>6.337143184458627</v>
       </c>
       <c r="G75" t="n">
-        <v>-9.717581205870482</v>
+        <v>-9.64891207746563</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-4.784430000292536</v>
       </c>
       <c r="E76" t="n">
-        <v>-11.98863751831049</v>
+        <v>-12.01107772538121</v>
       </c>
       <c r="F76" t="n">
-        <v>6.290377478707981</v>
+        <v>6.228215224815466</v>
       </c>
       <c r="G76" t="n">
-        <v>-9.777164276103177</v>
+        <v>-9.706989532871527</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-4.853756645445044</v>
       </c>
       <c r="E77" t="n">
-        <v>-12.70034819308957</v>
+        <v>-12.71569237202007</v>
       </c>
       <c r="F77" t="n">
-        <v>6.244711526396041</v>
+        <v>6.186895917046979</v>
       </c>
       <c r="G77" t="n">
-        <v>-9.524312631320921</v>
+        <v>-9.453247611496034</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-4.889806999289731</v>
       </c>
       <c r="E78" t="n">
-        <v>-13.39548401247101</v>
+        <v>-13.41141734502939</v>
       </c>
       <c r="F78" t="n">
-        <v>6.302396212716686</v>
+        <v>6.241124235417408</v>
       </c>
       <c r="G78" t="n">
-        <v>-8.887175713528324</v>
+        <v>-8.822578291307247</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-4.890031699693862</v>
       </c>
       <c r="E79" t="n">
-        <v>-13.64019224488571</v>
+        <v>-13.66460938968553</v>
       </c>
       <c r="F79" t="n">
-        <v>6.497104940578836</v>
+        <v>6.424023706116321</v>
       </c>
       <c r="G79" t="n">
-        <v>-9.122012349600363</v>
+        <v>-9.042227856082885</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-4.852822641124201</v>
       </c>
       <c r="E80" t="n">
-        <v>-14.23832719251281</v>
+        <v>-14.26254795277</v>
       </c>
       <c r="F80" t="n">
-        <v>6.491553804173944</v>
+        <v>6.417582293118192</v>
       </c>
       <c r="G80" t="n">
-        <v>-8.521690987398697</v>
+        <v>-8.444551139055248</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-4.773617931326872</v>
       </c>
       <c r="E81" t="n">
-        <v>-14.82844965080077</v>
+        <v>-14.84378073742843</v>
       </c>
       <c r="F81" t="n">
-        <v>6.602681270694515</v>
+        <v>6.522582561908835</v>
       </c>
       <c r="G81" t="n">
-        <v>-8.377479271597085</v>
+        <v>-8.295613101927772</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-4.648066692586369</v>
       </c>
       <c r="E82" t="n">
-        <v>-15.67460518346153</v>
+        <v>-15.69402106857581</v>
       </c>
       <c r="F82" t="n">
-        <v>6.629991814422356</v>
+        <v>6.5552347651961</v>
       </c>
       <c r="G82" t="n">
-        <v>-8.270292588231873</v>
+        <v>-8.183739374145222</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-4.472144745901434</v>
       </c>
       <c r="E83" t="n">
-        <v>-16.68946813054076</v>
+        <v>-16.70316267931321</v>
       </c>
       <c r="F83" t="n">
-        <v>6.799039628714723</v>
+        <v>6.720800026932568</v>
       </c>
       <c r="G83" t="n">
-        <v>-8.142236774136951</v>
+        <v>-8.055513360113357</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-4.242125461022304</v>
       </c>
       <c r="E84" t="n">
-        <v>-17.58910572030997</v>
+        <v>-17.59648977911271</v>
       </c>
       <c r="F84" t="n">
-        <v>6.746172909839833</v>
+        <v>6.656595373796743</v>
       </c>
       <c r="G84" t="n">
-        <v>-7.794400472237973</v>
+        <v>-7.718530577270171</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-3.959735107090024</v>
       </c>
       <c r="E85" t="n">
-        <v>-18.4451066647077</v>
+        <v>-18.47076757827749</v>
       </c>
       <c r="F85" t="n">
-        <v>6.944076159595364</v>
+        <v>6.861437544058389</v>
       </c>
       <c r="G85" t="n">
-        <v>-7.559799497617083</v>
+        <v>-7.490816153944029</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-3.625237693250023</v>
       </c>
       <c r="E86" t="n">
-        <v>-19.72683002060985</v>
+        <v>-19.76016302364488</v>
       </c>
       <c r="F86" t="n">
-        <v>6.810848885877959</v>
+        <v>6.724387317911201</v>
       </c>
       <c r="G86" t="n">
-        <v>-7.601616312893556</v>
+        <v>-7.526021356285431</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-3.247768377511155</v>
       </c>
       <c r="E87" t="n">
-        <v>-20.77002471103858</v>
+        <v>-20.80096182265358</v>
       </c>
       <c r="F87" t="n">
-        <v>6.903175805517812</v>
+        <v>6.811163101146161</v>
       </c>
       <c r="G87" t="n">
-        <v>-7.053808177390055</v>
+        <v>-6.983135926650418</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-2.834854487644069</v>
       </c>
       <c r="E88" t="n">
-        <v>-22.09099879086021</v>
+        <v>-22.12649202386413</v>
       </c>
       <c r="F88" t="n">
-        <v>7.222051933530892</v>
+        <v>7.136951965059673</v>
       </c>
       <c r="G88" t="n">
-        <v>-7.117764076771886</v>
+        <v>-7.050417270954047</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-2.402033140322174</v>
       </c>
       <c r="E89" t="n">
-        <v>-23.75479482059244</v>
+        <v>-23.78624253201827</v>
       </c>
       <c r="F89" t="n">
-        <v>7.051118827629317</v>
+        <v>6.955911601364284</v>
       </c>
       <c r="G89" t="n">
-        <v>-6.795457765414274</v>
+        <v>-6.731017450827299</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-1.964661551215453</v>
       </c>
       <c r="E90" t="n">
-        <v>-24.98221130430711</v>
+        <v>-25.02571702665016</v>
       </c>
       <c r="F90" t="n">
-        <v>7.360804159047505</v>
+        <v>7.271933607357869</v>
       </c>
       <c r="G90" t="n">
-        <v>-7.200965661331056</v>
+        <v>-7.134718608951921</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-1.537984275148695</v>
       </c>
       <c r="E91" t="n">
-        <v>-26.72147136761905</v>
+        <v>-26.76698021229689</v>
       </c>
       <c r="F91" t="n">
-        <v>7.454414124365846</v>
+        <v>7.353420100244771</v>
       </c>
       <c r="G91" t="n">
-        <v>-6.740614108810283</v>
+        <v>-6.69060151195489</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-1.138662460418428</v>
       </c>
       <c r="E92" t="n">
-        <v>-28.71123955350458</v>
+        <v>-28.75562246013803</v>
       </c>
       <c r="F92" t="n">
-        <v>7.156983188407514</v>
+        <v>7.060440547252625</v>
       </c>
       <c r="G92" t="n">
-        <v>-6.9959009219211</v>
+        <v>-6.940873973077325</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-0.7746393820703404</v>
       </c>
       <c r="E93" t="n">
-        <v>-30.56814705015227</v>
+        <v>-30.6025143451118</v>
       </c>
       <c r="F93" t="n">
-        <v>7.199690280277224</v>
+        <v>7.096627672307156</v>
       </c>
       <c r="G93" t="n">
-        <v>-6.255190796347606</v>
+        <v>-6.214657026749622</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-0.4560694864248218</v>
       </c>
       <c r="E94" t="n">
-        <v>-32.54547754833816</v>
+        <v>-32.57822139774531</v>
       </c>
       <c r="F94" t="n">
-        <v>7.153343528217514</v>
+        <v>7.05766497905018</v>
       </c>
       <c r="G94" t="n">
-        <v>-6.623647475222302</v>
+        <v>-6.586229673700649</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-0.1819623912456356</v>
       </c>
       <c r="E95" t="n">
-        <v>-34.89629216968996</v>
+        <v>-34.92393002098885</v>
       </c>
       <c r="F95" t="n">
-        <v>7.126949445688594</v>
+        <v>7.033810803272555</v>
       </c>
       <c r="G95" t="n">
-        <v>-5.985620280836466</v>
+        <v>-5.966282949539237</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>0.04777313733222231</v>
       </c>
       <c r="E96" t="n">
-        <v>-37.32837071478036</v>
+        <v>-37.350156306709</v>
       </c>
       <c r="F96" t="n">
-        <v>6.876834092200259</v>
+        <v>6.781076989215874</v>
       </c>
       <c r="G96" t="n">
-        <v>-5.913795907446757</v>
+        <v>-5.897718559557117</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>0.2401422560969638</v>
       </c>
       <c r="E97" t="n">
-        <v>-39.3015116760569</v>
+        <v>-39.32671435902722</v>
       </c>
       <c r="F97" t="n">
-        <v>6.819070852062564</v>
+        <v>6.729257654568323</v>
       </c>
       <c r="G97" t="n">
-        <v>-5.49565393928771</v>
+        <v>-5.488859034112854</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>0.4028313546345221</v>
       </c>
       <c r="E98" t="n">
-        <v>-41.71471112044954</v>
+        <v>-41.73699421988615</v>
       </c>
       <c r="F98" t="n">
-        <v>6.737270143907459</v>
+        <v>6.636433227420485</v>
       </c>
       <c r="G98" t="n">
-        <v>-5.677152533582558</v>
+        <v>-5.667032183485905</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>0.5448324517550941</v>
       </c>
       <c r="E99" t="n">
-        <v>-44.10252458963206</v>
+        <v>-44.13334387052148</v>
       </c>
       <c r="F99" t="n">
-        <v>6.56411134652279</v>
+        <v>6.46649513653488</v>
       </c>
       <c r="G99" t="n">
-        <v>-5.416877553089044</v>
+        <v>-5.409558955800519</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>0.6743438630926132</v>
       </c>
       <c r="E100" t="n">
-        <v>-46.22084609712049</v>
+        <v>-46.25386488488733</v>
       </c>
       <c r="F100" t="n">
-        <v>6.295954799718557</v>
+        <v>6.205120402602661</v>
       </c>
       <c r="G100" t="n">
-        <v>-5.474732439346631</v>
+        <v>-5.465410719723323</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>0.7989756047406817</v>
       </c>
       <c r="E101" t="n">
-        <v>-48.6424769845432</v>
+        <v>-48.66030870101363</v>
       </c>
       <c r="F101" t="n">
-        <v>6.274719084509277</v>
+        <v>6.180297396414749</v>
       </c>
       <c r="G101" t="n">
-        <v>-5.483739943701739</v>
+        <v>-5.484263635815409</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>0.9181589967372233</v>
       </c>
       <c r="E102" t="n">
-        <v>-51.13078697033881</v>
+        <v>-51.15021594775593</v>
       </c>
       <c r="F102" t="n">
-        <v>5.533354343793697</v>
+        <v>5.450872835890823</v>
       </c>
       <c r="G102" t="n">
-        <v>-5.170860090390169</v>
+        <v>-5.173111966478946</v>
       </c>
     </row>
   </sheetData>
